--- a/Reporte de Bugs.xlsx
+++ b/Reporte de Bugs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6525" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6525"/>
   </bookViews>
   <sheets>
     <sheet name="CP-002" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,18 +187,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -322,11 +316,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -335,18 +342,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -357,13 +359,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -371,15 +370,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -395,11 +387,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,13 +934,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3"/>
@@ -953,96 +954,96 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:6" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1088,95 +1089,95 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1190,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,95 +1222,95 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:2" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1323,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,95 +1355,95 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="22"/>
     </row>
     <row r="8" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="22"/>
     </row>
     <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
     </row>
     <row r="17" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="26" t="s">
         <v>14</v>
       </c>
     </row>
